--- a/formatted/candidates/candidates-3/documents/candidates-documents-references-verified.xlsx
+++ b/formatted/candidates/candidates-3/documents/candidates-documents-references-verified.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe.meade/Git/MarineMax/tcn.migration/formatted/candidates/candidates-3/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997629D4-30C4-6F47-9FBF-2728B9643A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E006A4F2-0635-B244-80F1-000EC7B0B8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="4460" windowWidth="53400" windowHeight="22160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5140" yWindow="4460" windowWidth="53400" windowHeight="22160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2950,7 +2950,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F100" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
